--- a/SRS (FINAL).xlsx
+++ b/SRS (FINAL).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\CC Live Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CC Live Project\cc-live-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7CB5A057-4FF9-4F7A-94C8-526E15C295AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15F7E39-93FC-47AD-A10A-5361C656D207}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5940" yWindow="-135" windowWidth="16200" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -73,9 +73,6 @@
   </si>
   <si>
     <t>FEASIBILITY STUDY</t>
-  </si>
-  <si>
-    <t>Vedant Nitin Deshpande</t>
   </si>
   <si>
     <t>Data Visualisation Model on Cloud Counselage Intern Data</t>
@@ -221,6 +218,9 @@
       </rPr>
       <t xml:space="preserve">is a Python data visualization library based on matplotlib. It provides a high-level interface for drawing attractive and informative statistical graphics.                                                                                                                     </t>
     </r>
+  </si>
+  <si>
+    <t>Jayanth G S</t>
   </si>
 </sst>
 </file>
@@ -464,15 +464,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -516,9 +512,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -529,6 +522,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -546,6 +542,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1022,7 +1021,7 @@
   <dimension ref="B1:W67"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49:E57"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1036,591 +1035,591 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:23" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="14"/>
-      <c r="C1" s="27" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="13"/>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
     </row>
     <row r="2" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B2" s="16"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="13"/>
-      <c r="W2" s="13"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B3" s="16"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="6" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
     </row>
     <row r="4" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="7" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="16"/>
+    </row>
+    <row r="5" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="14"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="16"/>
+    </row>
+    <row r="6" spans="2:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="14"/>
+      <c r="C6" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="16"/>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B7" s="14"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="16"/>
+    </row>
+    <row r="8" spans="2:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="14"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="18"/>
-    </row>
-    <row r="5" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="16"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="18"/>
-    </row>
-    <row r="6" spans="2:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="16"/>
-      <c r="C6" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="18"/>
-    </row>
-    <row r="7" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B7" s="16"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="18"/>
-    </row>
-    <row r="8" spans="2:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="16"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="28" t="s">
+      <c r="F8" s="16"/>
+    </row>
+    <row r="9" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="14"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="16"/>
+    </row>
+    <row r="10" spans="2:23" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="14"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="16"/>
+    </row>
+    <row r="11" spans="2:23" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="14"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="18"/>
-    </row>
-    <row r="9" spans="2:23" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="16"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="18"/>
-    </row>
-    <row r="10" spans="2:23" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="16"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="29" t="s">
+      <c r="F11" s="16"/>
+    </row>
+    <row r="12" spans="2:23" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="18"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="18"/>
-    </row>
-    <row r="11" spans="2:23" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="16"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="18"/>
-    </row>
-    <row r="12" spans="2:23" s="4" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="20"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="5" t="s">
+      <c r="F12" s="20"/>
+    </row>
+    <row r="13" spans="2:23" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="14"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="22"/>
-    </row>
-    <row r="13" spans="2:23" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="16"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="30" t="s">
+      <c r="F13" s="16"/>
+    </row>
+    <row r="14" spans="2:23" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="14"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="16"/>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B15" s="14"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="16"/>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="B16" s="14"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="16"/>
+    </row>
+    <row r="17" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="14"/>
+      <c r="C17" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="16"/>
+    </row>
+    <row r="18" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="14"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="18"/>
-    </row>
-    <row r="14" spans="2:23" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="16"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="18"/>
-    </row>
-    <row r="15" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B15" s="16"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="18"/>
-    </row>
-    <row r="16" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B16" s="16"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="18"/>
-    </row>
-    <row r="17" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="16"/>
-      <c r="C17" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="18"/>
-    </row>
-    <row r="18" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="16"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="32" t="s">
+      <c r="E18" s="31"/>
+      <c r="F18" s="16"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="14"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="16"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="14"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="16"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="14"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="16"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="14"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="16"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="14"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="16"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="14"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="16"/>
+    </row>
+    <row r="25" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="14"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="16"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="14"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="16"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="14"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="16"/>
+    </row>
+    <row r="28" spans="2:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="14"/>
+      <c r="C28" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="16"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="14"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="33"/>
-      <c r="F18" s="18"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="16"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="18"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="16"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="18"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="16"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="18"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="16"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="18"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="16"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="18"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="16"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="18"/>
-    </row>
-    <row r="25" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="16"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="18"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="16"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="18"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="16"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="18"/>
-    </row>
-    <row r="28" spans="2:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="16"/>
-      <c r="C28" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="18"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B29" s="16"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="32" t="s">
+      <c r="E29" s="31"/>
+      <c r="F29" s="16"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="14"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="16"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="14"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="16"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="14"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="16"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B33" s="14"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="16"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="14"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="16"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="14"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="16"/>
+    </row>
+    <row r="36" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="14"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="16"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="14"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="16"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="14"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="16"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="14"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="16"/>
+    </row>
+    <row r="40" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="14"/>
+      <c r="C40" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="16"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="14"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" s="38"/>
+      <c r="F41" s="16"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B42" s="14"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="16"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="14"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="40"/>
+      <c r="F43" s="16"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="14"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="16"/>
+    </row>
+    <row r="45" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="14"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="16"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46" s="14"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="16"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47" s="14"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="16"/>
+    </row>
+    <row r="48" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="14"/>
+      <c r="C48" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="16"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" s="14"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="E49" s="31"/>
+      <c r="F49" s="16"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" s="14"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="16"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51" s="14"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="16"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52" s="14"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="16"/>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B53" s="14"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="16"/>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B54" s="14"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="16"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B55" s="14"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="16"/>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56" s="14"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="16"/>
+    </row>
+    <row r="57" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="14"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="35"/>
+      <c r="F57" s="16"/>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B58" s="14"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="16"/>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B59" s="14"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="16"/>
+    </row>
+    <row r="60" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="14"/>
+      <c r="C60" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="16"/>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B61" s="14"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="E29" s="33"/>
-      <c r="F29" s="18"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="16"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="18"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="16"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="18"/>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="16"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="18"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="16"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="18"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="16"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="18"/>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="16"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="18"/>
-    </row>
-    <row r="36" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="16"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="36"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="18"/>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="16"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="18"/>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="16"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="18"/>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="16"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="18"/>
-    </row>
-    <row r="40" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="16"/>
-      <c r="C40" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="18"/>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="16"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="E41" s="39"/>
-      <c r="F41" s="18"/>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="16"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="41"/>
-      <c r="F42" s="18"/>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="16"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="41"/>
-      <c r="F43" s="18"/>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="16"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="41"/>
-      <c r="F44" s="18"/>
-    </row>
-    <row r="45" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="16"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="42"/>
-      <c r="E45" s="43"/>
-      <c r="F45" s="18"/>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B46" s="16"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="18"/>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B47" s="16"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="18"/>
-    </row>
-    <row r="48" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="16"/>
-      <c r="C48" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="18"/>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B49" s="16"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="E49" s="33"/>
-      <c r="F49" s="18"/>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B50" s="16"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="18"/>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B51" s="16"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="34"/>
-      <c r="E51" s="35"/>
-      <c r="F51" s="18"/>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B52" s="16"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="34"/>
-      <c r="E52" s="35"/>
-      <c r="F52" s="18"/>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B53" s="16"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="35"/>
-      <c r="F53" s="18"/>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B54" s="16"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="35"/>
-      <c r="F54" s="18"/>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B55" s="16"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="34"/>
-      <c r="E55" s="35"/>
-      <c r="F55" s="18"/>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B56" s="16"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="34"/>
-      <c r="E56" s="35"/>
-      <c r="F56" s="18"/>
-    </row>
-    <row r="57" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="16"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="36"/>
-      <c r="E57" s="37"/>
-      <c r="F57" s="18"/>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B58" s="16"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="18"/>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B59" s="16"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="18"/>
-    </row>
-    <row r="60" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="16"/>
-      <c r="C60" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="18"/>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B61" s="16"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="E61" s="33"/>
-      <c r="F61" s="18"/>
+      <c r="E61" s="31"/>
+      <c r="F61" s="16"/>
     </row>
     <row r="62" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B62" s="16"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="34"/>
-      <c r="E62" s="35"/>
-      <c r="F62" s="18"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="33"/>
+      <c r="F62" s="16"/>
     </row>
     <row r="63" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B63" s="16"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="34"/>
-      <c r="E63" s="35"/>
-      <c r="F63" s="18"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="33"/>
+      <c r="F63" s="16"/>
     </row>
     <row r="64" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B64" s="16"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="34"/>
-      <c r="E64" s="35"/>
-      <c r="F64" s="18"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="33"/>
+      <c r="F64" s="16"/>
     </row>
     <row r="65" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="16"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="36"/>
-      <c r="E65" s="37"/>
-      <c r="F65" s="18"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="34"/>
+      <c r="E65" s="35"/>
+      <c r="F65" s="16"/>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B66" s="16"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="18"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="16"/>
     </row>
     <row r="67" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="24"/>
-      <c r="C67" s="25"/>
-      <c r="D67" s="25"/>
-      <c r="E67" s="25"/>
-      <c r="F67" s="26"/>
+      <c r="B67" s="22"/>
+      <c r="C67" s="23"/>
+      <c r="D67" s="23"/>
+      <c r="E67" s="23"/>
+      <c r="F67" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="D61:E65"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="D18:E25"/>
     <mergeCell ref="D29:E36"/>
     <mergeCell ref="D41:E45"/>
     <mergeCell ref="D49:E57"/>
-    <mergeCell ref="D61:E65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
